--- a/Hardware/pcb/BOM.xlsx
+++ b/Hardware/pcb/BOM.xlsx
@@ -217,9 +217,6 @@
     <t>Low Dropout Regulator</t>
   </si>
   <si>
-    <t>Analog Devices</t>
-  </si>
-  <si>
     <t>ATMEGA328P</t>
   </si>
   <si>
@@ -287,6 +284,9 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>http://olimex.cl/en_US/shop/product/regulador-de-voltaje-adp3338-3-3v-1a-10134?search=regulador</t>
   </si>
 </sst>
 </file>
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,7 +1152,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1460,7 +1460,7 @@
         <v>66</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1468,19 +1468,19 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
         <v>68</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>69</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>70</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>71</v>
-      </c>
-      <c r="F18" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1488,19 +1488,19 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
         <v>73</v>
       </c>
-      <c r="C19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>74</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>75</v>
-      </c>
-      <c r="F19" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1508,19 +1508,19 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
         <v>77</v>
       </c>
-      <c r="C20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>78</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>79</v>
-      </c>
-      <c r="F20" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1528,16 +1528,16 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
         <v>81</v>
-      </c>
-      <c r="C21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1545,19 +1545,19 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
         <v>83</v>
       </c>
-      <c r="C22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>84</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>85</v>
-      </c>
-      <c r="F22" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1565,19 +1565,19 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" t="s">
         <v>87</v>
       </c>
-      <c r="C23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>88</v>
       </c>
-      <c r="E23" t="s">
-        <v>89</v>
-      </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
